--- a/data/trans_orig/P39B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{485A32D1-13A9-47E3-A429-BCE3093BDCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34626F99-B244-41D2-A386-BE8F1D72838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9E537384-CDB9-4DB7-8EA7-4D72FF475EB0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8C0DF71-C2B5-43E9-9A2B-BCC12759F340}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="527">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2012 (Tasa respuesta: 81,76%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>6,33%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -106,1540 +106,1519 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>10,1%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2015 (Tasa respuesta: 81,44%)</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
   </si>
   <si>
     <t>22,33%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2015 (Tasa respuesta: 81,44%)</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>15,35%</t>
   </si>
   <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
+    <t>23,05%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>18,58%</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DE666B-3574-4382-A11F-45E0768388A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025004A1-7579-4A3A-80E9-74B6FD7E8BF8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2483,13 +2462,13 @@
         <v>151234</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -2498,28 +2477,28 @@
         <v>116787</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>255</v>
       </c>
       <c r="N10" s="7">
-        <v>268021</v>
+        <v>268022</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2534,13 +2513,13 @@
         <v>402230</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -2549,28 +2528,28 @@
         <v>353257</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>705</v>
       </c>
       <c r="N11" s="7">
-        <v>755486</v>
+        <v>755487</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2585,13 +2564,13 @@
         <v>485386</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>390</v>
@@ -2600,13 +2579,13 @@
         <v>420258</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>847</v>
@@ -2615,13 +2594,13 @@
         <v>905644</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2615,13 @@
         <v>165303</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2651,13 +2630,13 @@
         <v>179062</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>315</v>
@@ -2666,13 +2645,13 @@
         <v>344365</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2666,13 @@
         <v>267730</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>336</v>
@@ -2702,13 +2681,13 @@
         <v>370680</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>582</v>
@@ -2717,13 +2696,13 @@
         <v>638409</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2744,7 @@
         <v>2704</v>
       </c>
       <c r="N15" s="7">
-        <v>2911926</v>
+        <v>2911927</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2779,7 +2758,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2791,13 +2770,13 @@
         <v>55334</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2806,13 +2785,13 @@
         <v>33788</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -2821,13 +2800,13 @@
         <v>89122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>116</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,13 +2821,13 @@
         <v>105388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>91</v>
@@ -2857,13 +2836,13 @@
         <v>97034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>189</v>
@@ -2872,13 +2851,13 @@
         <v>202422</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,13 +2872,13 @@
         <v>137190</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>134</v>
@@ -2908,13 +2887,13 @@
         <v>155794</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M18" s="7">
         <v>253</v>
@@ -2923,13 +2902,13 @@
         <v>292984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2944,13 +2923,13 @@
         <v>49478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -2959,13 +2938,13 @@
         <v>36914</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -2974,13 +2953,13 @@
         <v>86392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +2974,13 @@
         <v>56463</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -3010,13 +2989,13 @@
         <v>67511</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -3025,13 +3004,13 @@
         <v>123974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3078,13 @@
         <v>258353</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>153</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3114,13 +3093,13 @@
         <v>198332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -3129,13 +3108,13 @@
         <v>456686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3129,13 @@
         <v>644531</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>551</v>
@@ -3165,13 +3144,13 @@
         <v>593490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3180,13 +3159,13 @@
         <v>1238021</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3180,13 @@
         <v>857208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>847</v>
@@ -3216,13 +3195,13 @@
         <v>919868</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>1646</v>
@@ -3231,13 +3210,13 @@
         <v>1777076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3231,13 @@
         <v>338009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>408</v>
@@ -3267,13 +3246,13 @@
         <v>436839</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>711</v>
@@ -3282,13 +3261,13 @@
         <v>774848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,13 +3282,13 @@
         <v>596084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>816</v>
@@ -3318,13 +3297,13 @@
         <v>884222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>119</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>1366</v>
@@ -3333,13 +3312,13 @@
         <v>1480307</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3374,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3414,7 +3393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{044A65DF-025B-48AC-AB77-230A0D709AF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD3B4B4-7498-4C84-B09E-F09B9CACE743}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3431,7 +3410,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3535,16 +3514,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>65869</v>
+        <v>65870</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3553,13 +3532,13 @@
         <v>44272</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M4" s="7">
         <v>105</v>
@@ -3568,13 +3547,13 @@
         <v>110142</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3568,13 @@
         <v>126169</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
         <v>154</v>
@@ -3604,13 +3583,13 @@
         <v>173508</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M5" s="7">
         <v>278</v>
@@ -3619,13 +3598,13 @@
         <v>299676</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3619,13 @@
         <v>197544</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
         <v>253</v>
@@ -3655,13 +3634,13 @@
         <v>281425</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>79</v>
+        <v>216</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M6" s="7">
         <v>457</v>
@@ -3670,13 +3649,13 @@
         <v>478969</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3670,13 @@
         <v>105547</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -3706,13 +3685,13 @@
         <v>180057</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -3721,13 +3700,13 @@
         <v>285604</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3727,7 @@
         <v>231</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>202</v>
@@ -3757,13 +3736,13 @@
         <v>231820</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M8" s="7">
         <v>357</v>
@@ -3772,13 +3751,13 @@
         <v>385147</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3769,7 @@
         <v>658</v>
       </c>
       <c r="D9" s="7">
-        <v>648456</v>
+        <v>648457</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -3849,10 +3828,10 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H10" s="7">
         <v>152</v>
@@ -3861,13 +3840,13 @@
         <v>154716</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -3876,13 +3855,13 @@
         <v>340813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>244</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,13 +3876,13 @@
         <v>464599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -3912,13 +3891,13 @@
         <v>482766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="M11" s="7">
         <v>912</v>
@@ -3927,13 +3906,13 @@
         <v>947364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3927,13 @@
         <v>478111</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>476</v>
@@ -3963,13 +3942,13 @@
         <v>501498</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>926</v>
@@ -3978,13 +3957,13 @@
         <v>979610</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,13 +3978,13 @@
         <v>202748</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -4014,13 +3993,13 @@
         <v>198255</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>372</v>
@@ -4029,13 +4008,13 @@
         <v>401003</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4029,13 @@
         <v>229639</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -4065,13 +4044,13 @@
         <v>306400</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -4083,10 +4062,10 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,7 +4121,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4154,13 +4133,13 @@
         <v>55128</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -4169,13 +4148,13 @@
         <v>34156</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4184,13 +4163,13 @@
         <v>89284</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4184,13 @@
         <v>131154</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -4220,13 +4199,13 @@
         <v>134568</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -4235,13 +4214,13 @@
         <v>265722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4256,13 +4235,13 @@
         <v>115675</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H18" s="7">
         <v>137</v>
@@ -4271,13 +4250,13 @@
         <v>145796</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>246</v>
@@ -4286,13 +4265,13 @@
         <v>261470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4286,13 @@
         <v>50103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -4322,13 +4301,13 @@
         <v>63280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -4337,13 +4316,13 @@
         <v>113383</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4337,13 @@
         <v>76581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4373,13 +4352,13 @@
         <v>68940</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -4388,13 +4367,13 @@
         <v>145521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4462,13 +4441,13 @@
         <v>307094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>226</v>
@@ -4477,13 +4456,13 @@
         <v>233144</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>515</v>
@@ -4492,13 +4471,13 @@
         <v>540238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4492,13 @@
         <v>721921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H23" s="7">
         <v>752</v>
@@ -4528,13 +4507,13 @@
         <v>790842</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
         <v>1441</v>
@@ -4543,13 +4522,13 @@
         <v>1512763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4564,13 +4543,13 @@
         <v>791330</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>342</v>
+        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>866</v>
@@ -4579,13 +4558,13 @@
         <v>928719</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>1629</v>
@@ -4594,13 +4573,13 @@
         <v>1720049</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>347</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4615,13 +4594,13 @@
         <v>358398</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>349</v>
+        <v>238</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="H25" s="7">
         <v>406</v>
@@ -4630,13 +4609,13 @@
         <v>441592</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -4645,13 +4624,13 @@
         <v>799990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>222</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,13 +4645,13 @@
         <v>459547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H26" s="7">
         <v>554</v>
@@ -4681,13 +4660,13 @@
         <v>607160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>211</v>
+        <v>355</v>
       </c>
       <c r="M26" s="7">
         <v>994</v>
@@ -4696,13 +4675,13 @@
         <v>1066707</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,7 +4723,7 @@
         <v>5327</v>
       </c>
       <c r="N27" s="7">
-        <v>5639746</v>
+        <v>5639747</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4758,7 +4737,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E3646E-D4EC-4072-AB5B-8EBD4C3F761F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CBF110-0DA1-4D94-AC9E-8928C1107D73}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,7 +4773,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4901,13 +4880,13 @@
         <v>34493</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -4916,13 +4895,13 @@
         <v>31128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -4931,13 +4910,13 @@
         <v>65621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4931,13 @@
         <v>96822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4967,13 +4946,13 @@
         <v>139512</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -4982,13 +4961,13 @@
         <v>236334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5003,13 +4982,13 @@
         <v>119893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="H6" s="7">
         <v>398</v>
@@ -5018,13 +4997,13 @@
         <v>229172</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="M6" s="7">
         <v>556</v>
@@ -5033,13 +5012,13 @@
         <v>349065</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,13 +5033,13 @@
         <v>106895</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H7" s="7">
         <v>296</v>
@@ -5069,13 +5048,13 @@
         <v>163161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M7" s="7">
         <v>438</v>
@@ -5084,13 +5063,13 @@
         <v>270056</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5105,13 +5084,13 @@
         <v>119128</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="H8" s="7">
         <v>368</v>
@@ -5120,13 +5099,13 @@
         <v>212654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M8" s="7">
         <v>532</v>
@@ -5135,10 +5114,10 @@
         <v>331783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>402</v>
@@ -5209,13 +5188,13 @@
         <v>148222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="H10" s="7">
         <v>197</v>
@@ -5224,13 +5203,13 @@
         <v>153951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>335</v>
@@ -5239,13 +5218,13 @@
         <v>302173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,13 +5239,13 @@
         <v>449544</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>411</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -5275,13 +5254,13 @@
         <v>462903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>191</v>
       </c>
       <c r="M11" s="7">
         <v>1066</v>
@@ -5290,13 +5269,13 @@
         <v>912447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5290,13 @@
         <v>493286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>760</v>
@@ -5326,13 +5305,13 @@
         <v>637251</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>124</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="M12" s="7">
         <v>1268</v>
@@ -5341,13 +5320,13 @@
         <v>1130538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5341,13 @@
         <v>259258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="H13" s="7">
         <v>404</v>
@@ -5377,13 +5356,13 @@
         <v>255602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="M13" s="7">
         <v>692</v>
@@ -5392,13 +5371,13 @@
         <v>514860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5392,13 @@
         <v>264924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="H14" s="7">
         <v>553</v>
@@ -5428,13 +5407,13 @@
         <v>358735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -5443,13 +5422,13 @@
         <v>623659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>440</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,7 +5484,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5517,13 +5496,13 @@
         <v>33479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5532,13 +5511,13 @@
         <v>42114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -5547,13 +5526,13 @@
         <v>75593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,13 +5547,13 @@
         <v>145810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -5583,13 +5562,13 @@
         <v>149201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="M17" s="7">
         <v>351</v>
@@ -5598,13 +5577,13 @@
         <v>295011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5598,13 @@
         <v>187541</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="H18" s="7">
         <v>295</v>
@@ -5634,13 +5613,13 @@
         <v>195832</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>464</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M18" s="7">
         <v>490</v>
@@ -5649,13 +5628,13 @@
         <v>383373</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,13 +5649,13 @@
         <v>92093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>163</v>
@@ -5685,13 +5664,13 @@
         <v>105376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
@@ -5700,13 +5679,13 @@
         <v>197469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5700,13 @@
         <v>98011</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -5736,13 +5715,13 @@
         <v>138910</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>318</v>
@@ -5751,13 +5730,13 @@
         <v>236921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5804,13 @@
         <v>216195</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>295</v>
@@ -5840,13 +5819,13 @@
         <v>227192</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>505</v>
@@ -5855,13 +5834,13 @@
         <v>443387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5855,13 @@
         <v>692176</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>1081</v>
@@ -5891,13 +5870,13 @@
         <v>751616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>1763</v>
@@ -5906,13 +5885,13 @@
         <v>1443792</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5927,13 +5906,13 @@
         <v>800720</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>178</v>
+        <v>504</v>
       </c>
       <c r="H24" s="7">
         <v>1453</v>
@@ -5942,13 +5921,13 @@
         <v>1062255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M24" s="7">
         <v>2314</v>
@@ -5957,13 +5936,13 @@
         <v>1862975</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5978,13 +5957,13 @@
         <v>458245</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>863</v>
@@ -5993,13 +5972,13 @@
         <v>524139</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>1396</v>
@@ -6008,13 +5987,13 @@
         <v>982384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6029,13 +6008,13 @@
         <v>482063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="H26" s="7">
         <v>1123</v>
@@ -6044,13 +6023,13 @@
         <v>710300</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="M26" s="7">
         <v>1695</v>
@@ -6059,13 +6038,13 @@
         <v>1192363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,7 +6100,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34626F99-B244-41D2-A386-BE8F1D72838B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{928C0124-9C61-46BA-ABAD-24E65759B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8C0DF71-C2B5-43E9-9A2B-BCC12759F340}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCB2D262-54B3-4494-9003-24B33849376D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="528">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2012 (Tasa respuesta: 81,76%)</t>
   </si>
@@ -76,1549 +76,1552 @@
     <t>6,33%</t>
   </si>
   <si>
-    <t>4,71%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>Entre uno y tres años</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>Entre uno y tres años</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
     <t>31,25%</t>
   </si>
   <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2016 (Tasa respuesta: 81,44%)</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
+    <t>34,11%</t>
   </si>
   <si>
     <t>29,17%</t>
   </si>
   <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2015 (Tasa respuesta: 81,44%)</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
   </si>
   <si>
     <t>6,36%</t>
   </si>
   <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
   <si>
     <t>21,12%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025004A1-7579-4A3A-80E9-74B6FD7E8BF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6300054-5A96-41EA-B677-5646C3A825E6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2462,13 +2465,13 @@
         <v>151234</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>109</v>
@@ -2477,28 +2480,28 @@
         <v>116787</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
         <v>255</v>
       </c>
       <c r="N10" s="7">
-        <v>268022</v>
+        <v>268021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2516,13 @@
         <v>402230</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -2528,28 +2531,28 @@
         <v>353257</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
         <v>705</v>
       </c>
       <c r="N11" s="7">
-        <v>755487</v>
+        <v>755486</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,10 +2567,10 @@
         <v>485386</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>57</v>
@@ -2579,13 +2582,13 @@
         <v>420258</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>847</v>
@@ -2594,13 +2597,13 @@
         <v>905644</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2618,13 @@
         <v>165303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2630,13 +2633,13 @@
         <v>179062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>315</v>
@@ -2645,13 +2648,13 @@
         <v>344365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,7 +2669,7 @@
         <v>267730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>97</v>
@@ -2744,7 +2747,7 @@
         <v>2704</v>
       </c>
       <c r="N15" s="7">
-        <v>2911927</v>
+        <v>2911926</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -2806,7 +2809,7 @@
         <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2824,13 @@
         <v>105388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>91</v>
@@ -2992,10 +2995,10 @@
         <v>144</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -3004,13 +3007,13 @@
         <v>123974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,13 +3081,13 @@
         <v>258353</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3093,13 +3096,13 @@
         <v>198332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -3108,13 +3111,13 @@
         <v>456686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3132,13 @@
         <v>644531</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>551</v>
@@ -3144,13 +3147,13 @@
         <v>593490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3159,13 +3162,13 @@
         <v>1238021</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3183,13 @@
         <v>857208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>847</v>
@@ -3195,13 +3198,13 @@
         <v>919868</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>1646</v>
@@ -3210,13 +3213,13 @@
         <v>1777076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3234,13 @@
         <v>338009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H25" s="7">
         <v>408</v>
@@ -3246,13 +3249,13 @@
         <v>436839</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M25" s="7">
         <v>711</v>
@@ -3261,13 +3264,13 @@
         <v>774848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,13 +3285,13 @@
         <v>596084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H26" s="7">
         <v>816</v>
@@ -3297,13 +3300,13 @@
         <v>884222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M26" s="7">
         <v>1366</v>
@@ -3312,13 +3315,13 @@
         <v>1480307</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,7 +3377,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3393,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD3B4B4-7498-4C84-B09E-F09B9CACE743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8633B59E-83FD-4A4C-9F65-82DBEC172700}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3410,7 +3413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3514,16 +3517,16 @@
         <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>65870</v>
+        <v>65869</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3532,13 +3535,13 @@
         <v>44272</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>105</v>
@@ -3547,13 +3550,13 @@
         <v>110142</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3571,13 @@
         <v>126169</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>154</v>
@@ -3583,13 +3586,13 @@
         <v>173508</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>278</v>
@@ -3598,13 +3601,13 @@
         <v>299676</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3622,13 @@
         <v>197544</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>253</v>
@@ -3634,13 +3637,13 @@
         <v>281425</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>457</v>
@@ -3649,13 +3652,13 @@
         <v>478969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3673,13 @@
         <v>105547</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H7" s="7">
         <v>162</v>
@@ -3685,13 +3688,13 @@
         <v>180057</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M7" s="7">
         <v>273</v>
@@ -3700,13 +3703,13 @@
         <v>285604</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,13 +3724,13 @@
         <v>153327</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>202</v>
@@ -3736,13 +3739,13 @@
         <v>231820</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>357</v>
@@ -3751,13 +3754,13 @@
         <v>385147</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,7 +3772,7 @@
         <v>658</v>
       </c>
       <c r="D9" s="7">
-        <v>648457</v>
+        <v>648456</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -3828,10 +3831,10 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>152</v>
@@ -3840,13 +3843,13 @@
         <v>154716</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -3855,13 +3858,13 @@
         <v>340813</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3879,13 @@
         <v>464599</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -3891,13 +3894,13 @@
         <v>482766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>83</v>
+        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>912</v>
@@ -3906,13 +3909,13 @@
         <v>947364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,13 +3930,13 @@
         <v>478111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H12" s="7">
         <v>476</v>
@@ -3942,13 +3945,13 @@
         <v>501498</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M12" s="7">
         <v>926</v>
@@ -3957,13 +3960,13 @@
         <v>979610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3981,13 @@
         <v>202748</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>112</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -3993,13 +3996,13 @@
         <v>198255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>372</v>
@@ -4008,13 +4011,13 @@
         <v>401003</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4032,13 @@
         <v>229639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -4044,13 +4047,13 @@
         <v>306400</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M14" s="7">
         <v>502</v>
@@ -4062,10 +4065,10 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4136,13 @@
         <v>55128</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H16" s="7">
         <v>33</v>
@@ -4148,13 +4151,13 @@
         <v>34156</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4163,13 +4166,13 @@
         <v>89284</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4187,13 @@
         <v>131154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -4199,13 +4202,13 @@
         <v>134568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>291</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
         <v>251</v>
@@ -4214,13 +4217,13 @@
         <v>265722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4238,13 @@
         <v>115675</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>137</v>
@@ -4250,13 +4253,13 @@
         <v>145796</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
         <v>246</v>
@@ -4265,13 +4268,13 @@
         <v>261470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4289,7 @@
         <v>50103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>304</v>
@@ -4340,10 +4343,10 @@
         <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4352,13 +4355,13 @@
         <v>68940</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -4367,13 +4370,13 @@
         <v>145521</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4444,13 @@
         <v>307094</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H22" s="7">
         <v>226</v>
@@ -4456,13 +4459,13 @@
         <v>233144</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M22" s="7">
         <v>515</v>
@@ -4471,13 +4474,13 @@
         <v>540238</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,10 +4495,10 @@
         <v>721921</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>330</v>
@@ -4528,7 +4531,7 @@
         <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>336</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4546,13 @@
         <v>791330</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>866</v>
@@ -4558,13 +4561,13 @@
         <v>928719</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M24" s="7">
         <v>1629</v>
@@ -4573,10 +4576,10 @@
         <v>1720049</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>343</v>
@@ -4594,13 +4597,13 @@
         <v>358398</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>238</v>
+        <v>344</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H25" s="7">
         <v>406</v>
@@ -4609,13 +4612,13 @@
         <v>441592</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -4624,13 +4627,13 @@
         <v>799990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>222</v>
+        <v>350</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4648,13 @@
         <v>459547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H26" s="7">
         <v>554</v>
@@ -4660,13 +4663,13 @@
         <v>607160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M26" s="7">
         <v>994</v>
@@ -4675,13 +4678,13 @@
         <v>1066707</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,7 +4726,7 @@
         <v>5327</v>
       </c>
       <c r="N27" s="7">
-        <v>5639747</v>
+        <v>5639746</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4737,7 +4740,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -4756,7 +4759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32CBF110-0DA1-4D94-AC9E-8928C1107D73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835BD2F6-2840-400D-A87D-A87167390C39}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4773,7 +4776,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4880,13 +4883,13 @@
         <v>34493</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -4895,13 +4898,13 @@
         <v>31128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -4910,13 +4913,13 @@
         <v>65621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4934,13 @@
         <v>96822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4946,13 +4949,13 @@
         <v>139512</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -4961,13 +4964,13 @@
         <v>236334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4985,13 @@
         <v>119893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H6" s="7">
         <v>398</v>
@@ -4997,13 +5000,13 @@
         <v>229172</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M6" s="7">
         <v>556</v>
@@ -5012,13 +5015,13 @@
         <v>349065</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5036,13 @@
         <v>106895</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H7" s="7">
         <v>296</v>
@@ -5048,13 +5051,13 @@
         <v>163161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M7" s="7">
         <v>438</v>
@@ -5063,13 +5066,13 @@
         <v>270056</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5087,13 @@
         <v>119128</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>368</v>
@@ -5099,13 +5102,13 @@
         <v>212654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>532</v>
@@ -5114,13 +5117,13 @@
         <v>331783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5188,13 +5191,13 @@
         <v>148222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>197</v>
@@ -5203,13 +5206,13 @@
         <v>153951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>335</v>
@@ -5218,13 +5221,13 @@
         <v>302173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>409</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5260,7 +5263,7 @@
         <v>414</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>415</v>
       </c>
       <c r="M11" s="7">
         <v>1066</v>
@@ -5269,13 +5272,13 @@
         <v>912447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>417</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,7 +5299,7 @@
         <v>419</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>420</v>
       </c>
       <c r="H12" s="7">
         <v>760</v>
@@ -5305,13 +5308,13 @@
         <v>637251</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M12" s="7">
         <v>1268</v>
@@ -5320,13 +5323,13 @@
         <v>1130538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5344,13 @@
         <v>259258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>425</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H13" s="7">
         <v>404</v>
@@ -5356,13 +5359,13 @@
         <v>255602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M13" s="7">
         <v>692</v>
@@ -5371,10 +5374,10 @@
         <v>514860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>432</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>433</v>
@@ -5407,13 +5410,13 @@
         <v>358735</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -5422,13 +5425,13 @@
         <v>623659</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5496,13 +5499,13 @@
         <v>33479</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5511,13 +5514,13 @@
         <v>42114</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -5526,7 +5529,7 @@
         <v>75593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>448</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>449</v>
@@ -5652,10 +5655,10 @@
         <v>469</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>163</v>
@@ -5664,13 +5667,13 @@
         <v>105376</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
@@ -5679,13 +5682,13 @@
         <v>197469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5703,13 @@
         <v>98011</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -5715,13 +5718,13 @@
         <v>138910</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>318</v>
@@ -5730,13 +5733,13 @@
         <v>236921</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,13 +5807,13 @@
         <v>216195</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>295</v>
@@ -5819,13 +5822,13 @@
         <v>227192</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M22" s="7">
         <v>505</v>
@@ -5834,13 +5837,13 @@
         <v>443387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5858,13 @@
         <v>692176</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>1081</v>
@@ -5870,13 +5873,13 @@
         <v>751616</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>1763</v>
@@ -5885,13 +5888,13 @@
         <v>1443792</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5909,13 @@
         <v>800720</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="H24" s="7">
         <v>1453</v>
@@ -5921,13 +5924,13 @@
         <v>1062255</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>507</v>
       </c>
       <c r="M24" s="7">
         <v>2314</v>
@@ -5936,13 +5939,13 @@
         <v>1862975</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +5960,13 @@
         <v>458245</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="H25" s="7">
         <v>863</v>
@@ -5972,13 +5975,13 @@
         <v>524139</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>1396</v>
@@ -5987,7 +5990,7 @@
         <v>982384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>516</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>517</v>
@@ -6044,7 +6047,7 @@
         <v>526</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,7 +6103,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{928C0124-9C61-46BA-ABAD-24E65759B05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C313838-9E93-40EB-BED5-62441D01FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DCB2D262-54B3-4494-9003-24B33849376D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F86A1D80-2F5D-41CD-81FF-D482CCA9629F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="534">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2012 (Tasa respuesta: 81,76%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>6,33%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>Entre uno y tres años</t>
@@ -106,1450 +106,1474 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>13,87%</t>
   </si>
   <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>Entre seis meses y un año</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>3 a 5 meses</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>Menos de 3 meses</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2016 (Tasa respuesta: 81,44%)</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
     <t>12,32%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>Entre seis meses y un año</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>3 a 5 meses</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>Menos de 3 meses</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>20,16%</t>
   </si>
   <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2016 (Tasa respuesta: 81,44%)</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>8,29%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
     <t>26,13%</t>
   </si>
   <si>
     <t>24,38%</t>
   </si>
   <si>
-    <t>27,88%</t>
+    <t>28,05%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
   </si>
   <si>
     <t>24,37%</t>
   </si>
   <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>30,22%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>28,55%</t>
   </si>
   <si>
     <t>32,43%</t>
@@ -1558,70 +1582,64 @@
     <t>29,6%</t>
   </si>
   <si>
-    <t>41,38%</t>
+    <t>43,21%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>15,74%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>14,2%</t>
+    <t>14,09%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>21,69%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6300054-5A96-41EA-B677-5646C3A825E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8425157-C512-4A49-97D0-5A0A2ED493BD}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2573,7 +2591,7 @@
         <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
         <v>390</v>
@@ -2582,13 +2600,13 @@
         <v>420258</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
         <v>847</v>
@@ -2597,13 +2615,13 @@
         <v>905644</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2636,13 @@
         <v>165303</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2633,13 +2651,13 @@
         <v>179062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
         <v>315</v>
@@ -2648,13 +2666,13 @@
         <v>344365</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2687,13 @@
         <v>267730</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>336</v>
@@ -2684,13 +2702,13 @@
         <v>370680</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
         <v>582</v>
@@ -2699,13 +2717,13 @@
         <v>638409</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2761,7 +2779,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2773,13 +2791,13 @@
         <v>55334</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2788,13 +2806,13 @@
         <v>33788</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -2803,13 +2821,13 @@
         <v>89122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,13 +2842,13 @@
         <v>105388</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
         <v>91</v>
@@ -2839,13 +2857,13 @@
         <v>97034</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>189</v>
@@ -2854,13 +2872,13 @@
         <v>202422</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2893,13 @@
         <v>137190</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
         <v>134</v>
@@ -2890,13 +2908,13 @@
         <v>155794</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
         <v>253</v>
@@ -2905,13 +2923,13 @@
         <v>292984</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2944,13 @@
         <v>49478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -2941,13 +2959,13 @@
         <v>36914</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>76</v>
@@ -2956,13 +2974,13 @@
         <v>86392</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2995,13 @@
         <v>56463</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>63</v>
@@ -2992,13 +3010,13 @@
         <v>67511</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>116</v>
@@ -3007,13 +3025,13 @@
         <v>123974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3099,13 @@
         <v>258353</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>183</v>
@@ -3096,13 +3114,13 @@
         <v>198332</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>427</v>
@@ -3111,13 +3129,13 @@
         <v>456686</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3150,13 @@
         <v>644531</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H23" s="7">
         <v>551</v>
@@ -3147,13 +3165,13 @@
         <v>593490</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="M23" s="7">
         <v>1161</v>
@@ -3162,13 +3180,13 @@
         <v>1238021</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3201,13 @@
         <v>857208</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
         <v>847</v>
@@ -3198,13 +3216,13 @@
         <v>919868</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>1646</v>
@@ -3213,13 +3231,13 @@
         <v>1777076</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3252,13 @@
         <v>338009</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>408</v>
@@ -3249,13 +3267,13 @@
         <v>436839</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M25" s="7">
         <v>711</v>
@@ -3264,13 +3282,13 @@
         <v>774848</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3303,13 @@
         <v>596084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H26" s="7">
         <v>816</v>
@@ -3300,13 +3318,13 @@
         <v>884222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="M26" s="7">
         <v>1366</v>
@@ -3315,13 +3333,13 @@
         <v>1480307</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,7 +3395,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3396,7 +3414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8633B59E-83FD-4A4C-9F65-82DBEC172700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C30DF4-D056-49B9-8981-7C75327F69D9}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3413,7 +3431,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3520,13 +3538,13 @@
         <v>65869</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
         <v>41</v>
@@ -3535,13 +3553,13 @@
         <v>44272</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>105</v>
@@ -3550,13 +3568,13 @@
         <v>110142</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,13 +3589,13 @@
         <v>126169</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
         <v>154</v>
@@ -3586,13 +3604,13 @@
         <v>173508</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>278</v>
@@ -3601,13 +3619,13 @@
         <v>299676</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,13 +3640,13 @@
         <v>197544</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H6" s="7">
         <v>253</v>
@@ -3637,13 +3655,13 @@
         <v>281425</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>457</v>
@@ -3652,13 +3670,13 @@
         <v>478969</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,10 +3691,10 @@
         <v>105547</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>224</v>
@@ -3709,7 +3727,7 @@
         <v>229</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3742,13 @@
         <v>153327</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H8" s="7">
         <v>202</v>
@@ -3739,13 +3757,13 @@
         <v>231820</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M8" s="7">
         <v>357</v>
@@ -3754,13 +3772,13 @@
         <v>385147</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,10 +3849,10 @@
         <v>24</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H10" s="7">
         <v>152</v>
@@ -3843,13 +3861,13 @@
         <v>154716</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M10" s="7">
         <v>328</v>
@@ -3858,13 +3876,13 @@
         <v>340813</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3897,13 @@
         <v>464599</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H11" s="7">
         <v>466</v>
@@ -3894,13 +3912,13 @@
         <v>482766</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M11" s="7">
         <v>912</v>
@@ -3909,13 +3927,13 @@
         <v>947364</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3948,13 @@
         <v>478111</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7">
         <v>476</v>
@@ -3945,13 +3963,13 @@
         <v>501498</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M12" s="7">
         <v>926</v>
@@ -3960,13 +3978,13 @@
         <v>979610</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,13 +3999,13 @@
         <v>202748</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -3996,13 +4014,13 @@
         <v>198255</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>372</v>
@@ -4011,13 +4029,13 @@
         <v>401003</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4050,13 @@
         <v>229639</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -4047,10 +4065,10 @@
         <v>306400</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>277</v>
@@ -4124,7 +4142,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4154,10 +4172,10 @@
         <v>283</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M16" s="7">
         <v>82</v>
@@ -4166,13 +4184,13 @@
         <v>89284</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4205,13 @@
         <v>131154</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H17" s="7">
         <v>132</v>
@@ -4202,10 +4220,10 @@
         <v>134568</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>293</v>
@@ -4223,7 +4241,7 @@
         <v>295</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>169</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,13 +4256,13 @@
         <v>115675</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>137</v>
@@ -4253,13 +4271,13 @@
         <v>145796</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>246</v>
@@ -4268,13 +4286,13 @@
         <v>261470</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4289,13 +4307,13 @@
         <v>50103</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -4304,13 +4322,13 @@
         <v>63280</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -4319,13 +4337,13 @@
         <v>113383</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4340,13 +4358,13 @@
         <v>76581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -4355,13 +4373,13 @@
         <v>68940</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>135</v>
@@ -4370,13 +4388,13 @@
         <v>145521</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4444,13 +4462,13 @@
         <v>307094</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
         <v>226</v>
@@ -4459,13 +4477,13 @@
         <v>233144</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>515</v>
@@ -4474,13 +4492,13 @@
         <v>540238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>325</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,13 +4513,13 @@
         <v>721921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>329</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H23" s="7">
         <v>752</v>
@@ -4510,13 +4528,13 @@
         <v>790842</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M23" s="7">
         <v>1441</v>
@@ -4525,13 +4543,13 @@
         <v>1512763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4546,13 +4564,13 @@
         <v>791330</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H24" s="7">
         <v>866</v>
@@ -4561,13 +4579,13 @@
         <v>928719</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M24" s="7">
         <v>1629</v>
@@ -4576,13 +4594,13 @@
         <v>1720049</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4615,13 @@
         <v>358398</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H25" s="7">
         <v>406</v>
@@ -4612,13 +4630,13 @@
         <v>441592</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M25" s="7">
         <v>748</v>
@@ -4627,13 +4645,13 @@
         <v>799990</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4666,13 @@
         <v>459547</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H26" s="7">
         <v>554</v>
@@ -4663,13 +4681,13 @@
         <v>607160</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>355</v>
+        <v>105</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>357</v>
+        <v>211</v>
       </c>
       <c r="M26" s="7">
         <v>994</v>
@@ -4678,13 +4696,13 @@
         <v>1066707</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,7 +4758,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4759,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835BD2F6-2840-400D-A87D-A87167390C39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC9387-E02E-43FE-A6E1-7DC9B899987B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4776,7 +4794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4883,13 +4901,13 @@
         <v>34493</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>364</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -4898,13 +4916,13 @@
         <v>31128</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
@@ -4913,13 +4931,13 @@
         <v>65621</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4952,13 @@
         <v>96822</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
@@ -4949,13 +4967,13 @@
         <v>139512</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
@@ -4964,13 +4982,13 @@
         <v>236334</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +5003,13 @@
         <v>119893</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="H6" s="7">
         <v>398</v>
@@ -5000,13 +5018,13 @@
         <v>229172</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M6" s="7">
         <v>556</v>
@@ -5015,13 +5033,13 @@
         <v>349065</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,13 +5054,13 @@
         <v>106895</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>296</v>
@@ -5051,13 +5069,13 @@
         <v>163161</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>438</v>
@@ -5066,13 +5084,13 @@
         <v>270056</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,13 +5105,13 @@
         <v>119128</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H8" s="7">
         <v>368</v>
@@ -5102,13 +5120,13 @@
         <v>212654</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="M8" s="7">
         <v>532</v>
@@ -5117,13 +5135,13 @@
         <v>331783</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5191,13 +5209,13 @@
         <v>148222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H10" s="7">
         <v>197</v>
@@ -5206,13 +5224,13 @@
         <v>153951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>325</v>
+        <v>413</v>
       </c>
       <c r="M10" s="7">
         <v>335</v>
@@ -5221,13 +5239,13 @@
         <v>302173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>414</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5260,13 @@
         <v>449544</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>411</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -5257,13 +5275,13 @@
         <v>462903</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>1066</v>
@@ -5272,13 +5290,13 @@
         <v>912447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,13 +5311,13 @@
         <v>493286</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H12" s="7">
         <v>760</v>
@@ -5308,13 +5326,13 @@
         <v>637251</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M12" s="7">
         <v>1268</v>
@@ -5323,13 +5341,13 @@
         <v>1130538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,13 +5362,13 @@
         <v>259258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>433</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="H13" s="7">
         <v>404</v>
@@ -5359,13 +5377,13 @@
         <v>255602</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M13" s="7">
         <v>692</v>
@@ -5374,13 +5392,13 @@
         <v>514860</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,13 +5413,13 @@
         <v>264924</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>553</v>
@@ -5410,13 +5428,13 @@
         <v>358735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>445</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
@@ -5425,13 +5443,13 @@
         <v>623659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>439</v>
+        <v>110</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,7 +5505,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5499,13 +5517,13 @@
         <v>33479</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
@@ -5514,13 +5532,13 @@
         <v>42114</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
@@ -5529,13 +5547,13 @@
         <v>75593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5568,13 @@
         <v>145810</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>453</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
@@ -5565,13 +5583,13 @@
         <v>149201</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="M17" s="7">
         <v>351</v>
@@ -5580,13 +5598,13 @@
         <v>295011</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5601,13 +5619,13 @@
         <v>187541</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H18" s="7">
         <v>295</v>
@@ -5616,13 +5634,13 @@
         <v>195832</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>464</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="M18" s="7">
         <v>490</v>
@@ -5631,13 +5649,13 @@
         <v>383373</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5670,13 @@
         <v>92093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>476</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="H19" s="7">
         <v>163</v>
@@ -5667,13 +5685,13 @@
         <v>105376</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
@@ -5682,13 +5700,13 @@
         <v>197469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5721,13 @@
         <v>98011</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
@@ -5718,13 +5736,13 @@
         <v>138910</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>318</v>
@@ -5733,13 +5751,13 @@
         <v>236921</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,13 +5825,13 @@
         <v>216195</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>295</v>
@@ -5822,13 +5840,13 @@
         <v>227192</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="M22" s="7">
         <v>505</v>
@@ -5837,13 +5855,13 @@
         <v>443387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>66</v>
+        <v>499</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,13 +5876,13 @@
         <v>692176</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="H23" s="7">
         <v>1081</v>
@@ -5873,13 +5891,13 @@
         <v>751616</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>1763</v>
@@ -5888,13 +5906,13 @@
         <v>1443792</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,13 +5927,13 @@
         <v>800720</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>503</v>
+        <v>178</v>
       </c>
       <c r="H24" s="7">
         <v>1453</v>
@@ -5924,13 +5942,13 @@
         <v>1062255</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M24" s="7">
         <v>2314</v>
@@ -5939,13 +5957,13 @@
         <v>1862975</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5978,13 @@
         <v>458245</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>512</v>
+        <v>360</v>
       </c>
       <c r="H25" s="7">
         <v>863</v>
@@ -5975,13 +5993,13 @@
         <v>524139</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="M25" s="7">
         <v>1396</v>
@@ -5990,13 +6008,13 @@
         <v>982384</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>516</v>
+        <v>274</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6029,13 @@
         <v>482063</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="H26" s="7">
         <v>1123</v>
@@ -6026,13 +6044,13 @@
         <v>710300</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="M26" s="7">
         <v>1695</v>
@@ -6041,13 +6059,13 @@
         <v>1192363</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,7 +6121,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P39B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P39B-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C313838-9E93-40EB-BED5-62441D01FCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C78E6B2B-6ADC-4DC3-A861-2D82FA74372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F86A1D80-2F5D-41CD-81FF-D482CCA9629F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C9A92293-2A4C-4B6D-A539-F10204E33988}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="522">
   <si>
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2012 (Tasa respuesta: 81,76%)</t>
   </si>
@@ -1135,511 +1135,475 @@
     <t>Población según el tiempo transcurrido desde la última vez que le midieron el colesterol en 2023 (Tasa respuesta: 87,94%)</t>
   </si>
   <si>
-    <t>7,23%</t>
+    <t>7,24%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8425157-C512-4A49-97D0-5A0A2ED493BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729FDD9C-1BC8-4200-87E7-2B7B8B7FFDC6}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2510,7 +2474,7 @@
         <v>255</v>
       </c>
       <c r="N10" s="7">
-        <v>268021</v>
+        <v>268022</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>68</v>
@@ -2561,7 +2525,7 @@
         <v>705</v>
       </c>
       <c r="N11" s="7">
-        <v>755486</v>
+        <v>755487</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>77</v>
@@ -2765,7 +2729,7 @@
         <v>2704</v>
       </c>
       <c r="N15" s="7">
-        <v>2911926</v>
+        <v>2911927</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -3414,7 +3378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C30DF4-D056-49B9-8981-7C75327F69D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{525F643A-138A-4741-8B38-C01D691596C5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3535,7 +3499,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>65869</v>
+        <v>65870</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>197</v>
@@ -3790,7 +3754,7 @@
         <v>658</v>
       </c>
       <c r="D9" s="7">
-        <v>648456</v>
+        <v>648457</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -4744,7 +4708,7 @@
         <v>5327</v>
       </c>
       <c r="N27" s="7">
-        <v>5639746</v>
+        <v>5639747</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
@@ -4777,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88CC9387-E02E-43FE-A6E1-7DC9B899987B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2DCF4E-C21C-4896-A62A-DC5D46F3F83A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4898,7 +4862,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>34493</v>
+        <v>32954</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>365</v>
@@ -4907,37 +4871,37 @@
         <v>366</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>367</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>31128</v>
+        <v>28668</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M4" s="7">
         <v>87</v>
       </c>
       <c r="N4" s="7">
-        <v>65621</v>
+        <v>61622</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,46 +4913,46 @@
         <v>116</v>
       </c>
       <c r="D5" s="7">
-        <v>96822</v>
+        <v>92191</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H5" s="7">
         <v>230</v>
       </c>
       <c r="I5" s="7">
-        <v>139512</v>
+        <v>126988</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M5" s="7">
         <v>346</v>
       </c>
       <c r="N5" s="7">
-        <v>236334</v>
+        <v>219179</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,46 +4964,46 @@
         <v>158</v>
       </c>
       <c r="D6" s="7">
-        <v>119893</v>
+        <v>113560</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H6" s="7">
         <v>398</v>
       </c>
       <c r="I6" s="7">
-        <v>229172</v>
+        <v>206593</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M6" s="7">
         <v>556</v>
       </c>
       <c r="N6" s="7">
-        <v>349065</v>
+        <v>320153</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>390</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,46 +5015,46 @@
         <v>142</v>
       </c>
       <c r="D7" s="7">
-        <v>106895</v>
+        <v>100715</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H7" s="7">
         <v>296</v>
       </c>
       <c r="I7" s="7">
-        <v>163161</v>
+        <v>146473</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M7" s="7">
         <v>438</v>
       </c>
       <c r="N7" s="7">
-        <v>270056</v>
+        <v>247187</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,46 +5066,46 @@
         <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>119128</v>
+        <v>115783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>400</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H8" s="7">
         <v>368</v>
       </c>
       <c r="I8" s="7">
-        <v>212654</v>
+        <v>194253</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>405</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>532</v>
       </c>
       <c r="N8" s="7">
-        <v>331783</v>
+        <v>310036</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>402</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5117,7 @@
         <v>619</v>
       </c>
       <c r="D9" s="7">
-        <v>477231</v>
+        <v>455204</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>60</v>
@@ -5168,7 +5132,7 @@
         <v>1340</v>
       </c>
       <c r="I9" s="7">
-        <v>775627</v>
+        <v>702974</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>60</v>
@@ -5183,7 +5147,7 @@
         <v>1959</v>
       </c>
       <c r="N9" s="7">
-        <v>1252858</v>
+        <v>1158178</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>60</v>
@@ -5206,46 +5170,46 @@
         <v>138</v>
       </c>
       <c r="D10" s="7">
-        <v>148222</v>
+        <v>147122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H10" s="7">
         <v>197</v>
       </c>
       <c r="I10" s="7">
-        <v>153951</v>
+        <v>142379</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M10" s="7">
         <v>335</v>
       </c>
       <c r="N10" s="7">
-        <v>302173</v>
+        <v>289501</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>416</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,46 +5221,46 @@
         <v>425</v>
       </c>
       <c r="D11" s="7">
-        <v>449544</v>
+        <v>442573</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>390</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
       </c>
       <c r="I11" s="7">
-        <v>462903</v>
+        <v>428826</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M11" s="7">
         <v>1066</v>
       </c>
       <c r="N11" s="7">
-        <v>912447</v>
+        <v>871399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5308,46 +5272,46 @@
         <v>508</v>
       </c>
       <c r="D12" s="7">
-        <v>493286</v>
+        <v>477267</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="H12" s="7">
         <v>760</v>
       </c>
       <c r="I12" s="7">
-        <v>637251</v>
+        <v>712998</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="M12" s="7">
         <v>1268</v>
       </c>
       <c r="N12" s="7">
-        <v>1130538</v>
+        <v>1190265</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5359,46 +5323,46 @@
         <v>288</v>
       </c>
       <c r="D13" s="7">
-        <v>259258</v>
+        <v>249136</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H13" s="7">
         <v>404</v>
       </c>
       <c r="I13" s="7">
-        <v>255602</v>
+        <v>236074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M13" s="7">
         <v>692</v>
       </c>
       <c r="N13" s="7">
-        <v>514860</v>
+        <v>485211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,46 +5374,46 @@
         <v>292</v>
       </c>
       <c r="D14" s="7">
-        <v>264924</v>
+        <v>259921</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H14" s="7">
         <v>553</v>
       </c>
       <c r="I14" s="7">
-        <v>358735</v>
+        <v>336125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M14" s="7">
         <v>845</v>
       </c>
       <c r="N14" s="7">
-        <v>623659</v>
+        <v>596045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>442</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5425,7 @@
         <v>1651</v>
       </c>
       <c r="D15" s="7">
-        <v>1615234</v>
+        <v>1576019</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>60</v>
@@ -5476,7 +5440,7 @@
         <v>2555</v>
       </c>
       <c r="I15" s="7">
-        <v>1868442</v>
+        <v>1856402</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>60</v>
@@ -5491,7 +5455,7 @@
         <v>4206</v>
       </c>
       <c r="N15" s="7">
-        <v>3483676</v>
+        <v>3432421</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>60</v>
@@ -5514,46 +5478,46 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>33479</v>
+        <v>32948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H16" s="7">
         <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>42114</v>
+        <v>38356</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="M16" s="7">
         <v>83</v>
       </c>
       <c r="N16" s="7">
-        <v>75593</v>
+        <v>71304</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,46 +5529,46 @@
         <v>141</v>
       </c>
       <c r="D17" s="7">
-        <v>145810</v>
+        <v>139967</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>405</v>
+        <v>456</v>
       </c>
       <c r="H17" s="7">
         <v>210</v>
       </c>
       <c r="I17" s="7">
-        <v>149201</v>
+        <v>138464</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="M17" s="7">
         <v>351</v>
       </c>
       <c r="N17" s="7">
-        <v>295011</v>
+        <v>278431</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,46 +5580,46 @@
         <v>195</v>
       </c>
       <c r="D18" s="7">
-        <v>187541</v>
+        <v>178444</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H18" s="7">
         <v>295</v>
       </c>
       <c r="I18" s="7">
-        <v>195832</v>
+        <v>182394</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="M18" s="7">
         <v>490</v>
       </c>
       <c r="N18" s="7">
-        <v>383373</v>
+        <v>360839</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>473</v>
+        <v>73</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,46 +5631,46 @@
         <v>103</v>
       </c>
       <c r="D19" s="7">
-        <v>92093</v>
+        <v>86986</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>475</v>
+        <v>223</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H19" s="7">
         <v>163</v>
       </c>
       <c r="I19" s="7">
-        <v>105376</v>
+        <v>96695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>479</v>
+        <v>268</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
       </c>
       <c r="N19" s="7">
-        <v>197469</v>
+        <v>183680</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>481</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>482</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,46 +5682,46 @@
         <v>116</v>
       </c>
       <c r="D20" s="7">
-        <v>98011</v>
+        <v>96112</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>202</v>
       </c>
       <c r="I20" s="7">
-        <v>138910</v>
+        <v>131145</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>318</v>
       </c>
       <c r="N20" s="7">
-        <v>236921</v>
+        <v>227257</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,7 +5733,7 @@
         <v>588</v>
       </c>
       <c r="D21" s="7">
-        <v>556934</v>
+        <v>534456</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>60</v>
@@ -5784,7 +5748,7 @@
         <v>920</v>
       </c>
       <c r="I21" s="7">
-        <v>631433</v>
+        <v>587054</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>60</v>
@@ -5799,7 +5763,7 @@
         <v>1508</v>
       </c>
       <c r="N21" s="7">
-        <v>1188367</v>
+        <v>1121511</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>60</v>
@@ -5822,46 +5786,46 @@
         <v>210</v>
       </c>
       <c r="D22" s="7">
-        <v>216195</v>
+        <v>213024</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>295</v>
       </c>
       <c r="I22" s="7">
-        <v>227192</v>
+        <v>209403</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>505</v>
       </c>
       <c r="N22" s="7">
-        <v>443387</v>
+        <v>422427</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,46 +5837,46 @@
         <v>682</v>
       </c>
       <c r="D23" s="7">
-        <v>692176</v>
+        <v>674731</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>502</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="H23" s="7">
         <v>1081</v>
       </c>
       <c r="I23" s="7">
-        <v>751616</v>
+        <v>694278</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="M23" s="7">
         <v>1763</v>
       </c>
       <c r="N23" s="7">
-        <v>1443792</v>
+        <v>1369009</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,46 +5888,46 @@
         <v>861</v>
       </c>
       <c r="D24" s="7">
-        <v>800720</v>
+        <v>769271</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>178</v>
+        <v>248</v>
       </c>
       <c r="H24" s="7">
         <v>1453</v>
       </c>
       <c r="I24" s="7">
-        <v>1062255</v>
+        <v>1101985</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="M24" s="7">
         <v>2314</v>
       </c>
       <c r="N24" s="7">
-        <v>1862975</v>
+        <v>1871256</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,46 +5939,46 @@
         <v>533</v>
       </c>
       <c r="D25" s="7">
-        <v>458245</v>
+        <v>436837</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>518</v>
+        <v>47</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>519</v>
+        <v>308</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>863</v>
       </c>
       <c r="I25" s="7">
-        <v>524139</v>
+        <v>479242</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="M25" s="7">
         <v>1396</v>
       </c>
       <c r="N25" s="7">
-        <v>982384</v>
+        <v>916078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>511</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,46 +5990,46 @@
         <v>572</v>
       </c>
       <c r="D26" s="7">
-        <v>482063</v>
+        <v>471816</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="H26" s="7">
         <v>1123</v>
       </c>
       <c r="I26" s="7">
-        <v>710300</v>
+        <v>661523</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="M26" s="7">
         <v>1695</v>
       </c>
       <c r="N26" s="7">
-        <v>1192363</v>
+        <v>1133339</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>533</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,7 +6041,7 @@
         <v>2858</v>
       </c>
       <c r="D27" s="7">
-        <v>2649399</v>
+        <v>2565679</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>60</v>
@@ -6092,7 +6056,7 @@
         <v>4815</v>
       </c>
       <c r="I27" s="7">
-        <v>3275502</v>
+        <v>3146431</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>60</v>
@@ -6107,7 +6071,7 @@
         <v>7673</v>
       </c>
       <c r="N27" s="7">
-        <v>5924900</v>
+        <v>5712110</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>60</v>
